--- a/bindings.xlsx
+++ b/bindings.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
-  <si>
-    <t>game camera snap</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>camera zoom</t>
   </si>
@@ -52,9 +49,6 @@
     <t>create new level</t>
   </si>
   <si>
-    <t>exit editor</t>
-  </si>
-  <si>
     <t>focus file panel</t>
   </si>
   <si>
@@ -70,79 +64,88 @@
     <t>focus place panel</t>
   </si>
   <si>
-    <t>Ctrl</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>scaling/rotating items</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>grid snap toggle</t>
+  </si>
+  <si>
+    <t>hide GUI toggle</t>
+  </si>
+  <si>
+    <t>this also includes reseting scaling/rotation (Ctrl + R)</t>
+  </si>
+  <si>
+    <t>this also includes reseting zoom (Ctrl + Z)</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Ctrl+S</t>
+  </si>
+  <si>
+    <t>Ctrl+L</t>
+  </si>
+  <si>
+    <t>Ctrl+N</t>
+  </si>
+  <si>
+    <t>Alt+P</t>
+  </si>
+  <si>
+    <t>Alt+E</t>
+  </si>
+  <si>
+    <t>Alt+I</t>
+  </si>
+  <si>
+    <t>Alt+L</t>
+  </si>
+  <si>
+    <t>Alt+F</t>
+  </si>
+  <si>
+    <t>Alt+T</t>
+  </si>
+  <si>
+    <t>Alt+D</t>
+  </si>
+  <si>
+    <t>Alt+O</t>
+  </si>
+  <si>
+    <t>Ctrl+M</t>
+  </si>
+  <si>
+    <t>Ctrl+A</t>
+  </si>
+  <si>
+    <t>Ctrl+X</t>
+  </si>
+  <si>
+    <t>Ctrl+C</t>
+  </si>
+  <si>
+    <t>Ctrl+G</t>
+  </si>
+  <si>
+    <t>Ctrl+H</t>
+  </si>
+  <si>
+    <t>edit items</t>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>scaling/rotating items</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>mouse input</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>grid snap toggle</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Esc</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>hide GUI toggle</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,17 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -508,40 +521,42 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,175 +567,149 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B1:B21">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bindings.xlsx
+++ b/bindings.xlsx
@@ -88,9 +88,6 @@
     <t>Attach</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Ctrl+S</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Ctrl+J</t>
   </si>
 </sst>
 </file>
@@ -181,23 +181,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -521,7 +512,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,15 +524,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -552,15 +543,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -571,131 +562,131 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,13 +694,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bindings.xlsx
+++ b/bindings.xlsx
@@ -79,9 +79,6 @@
     <t>hide GUI toggle</t>
   </si>
   <si>
-    <t>this also includes reseting scaling/rotation (Ctrl + R)</t>
-  </si>
-  <si>
     <t>this also includes reseting zoom (Ctrl + Z)</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Ctrl+J</t>
+  </si>
+  <si>
+    <t>this also includes reseting scaling/rotation and random rot/scale (Ctrl + R, Alt + R)</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,15 +558,15 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,15 +646,15 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
